--- a/test/data/example.xlsx
+++ b/test/data/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mars\.julia\dev\XLSXasJSON\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7435A2-03D3-4542-9199-65B1A0FEDC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB22E50-C528-4240-A035-4C81079A5128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="4185" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,19 +269,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/array_string::Vector{String}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/array_int::Vector{Int}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/array_float::Vector{Float64}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array_any::Vector</t>
+    <t>array_any::array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/array_string::array{string}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/array_int::array{integer}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/array_float::array{number}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,32 +609,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>900</v>
       </c>
@@ -687,13 +687,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -701,7 +699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -709,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -717,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -725,7 +723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -733,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -741,7 +739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -749,7 +747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -767,13 +765,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -853,7 +851,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -933,7 +931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -983,7 +981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
